--- a/bh3/549131222570420162_2021-07-19_19-09-36.xlsx
+++ b/bh3/549131222570420162_2021-07-19_19-09-36.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4990417747</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:52:03</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44402.91114583334</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>4945693536</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:56:28</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44399.03921296296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>4959786717</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:32:47</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44398.77276620371</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -768,10 +778,8 @@
           <t>4958971365</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:31:02</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44398.68821759259</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -840,10 +848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:19:01</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44398.51320601852</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -915,10 +921,8 @@
           <t>4957236381</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:34:08</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44398.48203703704</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -986,10 +990,8 @@
           <t>4951273401</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:26:01</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44397.89306712963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1054,10 +1056,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:25:19</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44397.89258101852</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1121,10 +1121,8 @@
           <t>4951689962</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:44:33</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44397.69760416666</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1192,10 +1190,8 @@
           <t>4951273401</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:29:29</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44397.64547453704</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -1267,10 +1263,8 @@
           <t>4949883875</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-20 11:52:09</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44397.49454861111</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1338,10 +1332,8 @@
           <t>4945574235</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-20 11:17:39</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44397.47059027778</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1417,10 +1409,8 @@
           <t>4949663441</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-20 11:16:57</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44397.47010416666</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1496,10 +1486,8 @@
           <t>4948976857</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-20 08:59:58</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44397.37497685185</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1559,10 +1547,8 @@
           <t>4945531250</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-20 08:29:20</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44397.3537037037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1630,10 +1616,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-20 08:03:19</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44397.33563657408</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1701,10 +1685,8 @@
           <t>4948729457</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-20 07:55:19</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44397.33008101852</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1768,10 +1750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-20 07:29:14</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44397.31196759259</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1843,10 +1823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-20 06:48:28</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44397.28365740741</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1922,10 +1900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-20 06:21:18</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44397.26479166667</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1993,10 +1969,8 @@
           <t>4945607167</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-20 04:49:40</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44397.20115740741</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2072,10 +2046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-20 04:48:35</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44397.20040509259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2151,10 +2123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-20 02:31:55</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44397.10549768519</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2222,10 +2192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-20 02:24:09</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44397.10010416667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2289,10 +2257,8 @@
           <t>4947969698</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-20 01:13:42</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44397.05118055556</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2364,10 +2330,8 @@
           <t>4947969698</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-20 00:59:31</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44397.04133101852</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2435,10 +2399,8 @@
           <t>4946210401</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-20 00:48:40</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44397.03379629629</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2528,10 +2490,8 @@
           <t>4947828335</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-20 00:30:21</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44397.02107638889</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2595,10 +2555,8 @@
           <t>4947814174</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-20 00:28:13</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44397.0195949074</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2662,10 +2620,8 @@
           <t>4947808075</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-20 00:27:40</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44397.01921296296</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2737,10 +2693,8 @@
           <t>4947796012</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-20 00:24:07</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44397.01674768519</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2804,10 +2758,8 @@
           <t>4945584902</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-20 00:03:25</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44397.00237268519</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2880,10 +2832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:44:40</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44396.98935185185</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -2951,10 +2901,8 @@
           <t>4947456453</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:34:18</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44396.98215277777</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3026,10 +2974,8 @@
           <t>4947439621</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:33:35</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44396.98165509259</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3097,10 +3043,8 @@
           <t>4947314518</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:16:30</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44396.96979166667</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3172,10 +3116,8 @@
           <t>4947309013</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:16:24</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44396.96972222222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3247,10 +3189,8 @@
           <t>4947311839</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:15:31</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44396.96910879629</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3324,10 +3264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:13:50</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44396.96793981481</v>
       </c>
       <c r="I40" t="n">
         <v>10</v>
@@ -3404,10 +3342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:09:52</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44396.96518518519</v>
       </c>
       <c r="I41" t="n">
         <v>7</v>
@@ -3474,10 +3410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:09:40</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44396.9650462963</v>
       </c>
       <c r="I42" t="n">
         <v>6</v>
@@ -3541,10 +3475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:09:33</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44396.96496527778</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -3608,10 +3540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:09:27</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44396.96489583333</v>
       </c>
       <c r="I44" t="n">
         <v>7</v>
@@ -3682,10 +3612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:09:21</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44396.96482638889</v>
       </c>
       <c r="I45" t="n">
         <v>7</v>
@@ -3749,10 +3677,8 @@
           <t>4947254745</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:09:11</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44396.96471064815</v>
       </c>
       <c r="I46" t="n">
         <v>16</v>
@@ -3816,10 +3742,8 @@
           <t>4947227141</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-19 23:05:45</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44396.96232638889</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3879,10 +3803,8 @@
           <t>4947022176</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:39:51</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44396.94434027778</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3958,10 +3880,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:39:32</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44396.94412037037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4025,10 +3945,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:38:55</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44396.94369212963</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4104,10 +4022,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:37:53</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44396.94297453704</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4171,10 +4087,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:34:56</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44396.94092592593</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4250,10 +4164,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:32:38</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44396.9393287037</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4330,10 +4242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:26:39</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44396.93517361111</v>
       </c>
       <c r="I54" t="n">
         <v>12</v>
@@ -4401,10 +4311,8 @@
           <t>4945485183</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:20:17</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44396.93075231482</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4464,10 +4372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:19:00</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44396.92986111111</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4531,10 +4437,8 @@
           <t>4946514456</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:14:04</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44396.92643518518</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4602,10 +4506,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:12:49</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44396.92556712963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4669,10 +4571,8 @@
           <t>4946754452</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-19 22:07:46</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44396.92206018518</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4744,10 +4644,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:50:28</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44396.9100462963</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4811,10 +4709,8 @@
           <t>4946514456</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:48:49</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44396.90890046296</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4890,10 +4786,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:48:37</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44396.90876157407</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4961,10 +4855,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:47:11</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44396.9077662037</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5032,10 +4924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:38:31</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44396.90174768519</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5103,10 +4993,8 @@
           <t>4946514456</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:37:04</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44396.90074074074</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5174,10 +5062,8 @@
           <t>4946486284</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:32:37</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44396.89765046296</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5249,10 +5135,8 @@
           <t>4946370915</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:29:36</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44396.89555555556</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5328,10 +5212,8 @@
           <t>4946438716</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:27:02</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44396.89377314815</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5403,10 +5285,8 @@
           <t>4946370915</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:26:42</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44396.89354166666</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5478,10 +5358,8 @@
           <t>4946370915</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:22:33</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44396.89065972222</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5557,10 +5435,8 @@
           <t>4946387618</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:20:39</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44396.88934027778</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5632,10 +5508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:19:47</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44396.88873842593</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -5703,10 +5577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:18:06</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44396.88756944444</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
@@ -5770,10 +5642,8 @@
           <t>4946370915</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:17:59</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44396.88748842593</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5845,10 +5715,8 @@
           <t>4945531250</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:17:14</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44396.8869675926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5924,10 +5792,8 @@
           <t>4946349086</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:15:59</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44396.88609953703</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6003,10 +5869,8 @@
           <t>4946346880</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:15:09</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44396.88552083333</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6070,10 +5934,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:14:16</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44396.88490740741</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
@@ -6137,10 +5999,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:11:37</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44396.88306712963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6208,10 +6068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:11:04</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44396.88268518518</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6279,10 +6137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:08:09</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44396.88065972222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6354,10 +6210,8 @@
           <t>4945485183</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:07:16</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44396.8800462963</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6433,10 +6287,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:06:50</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44396.87974537037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6504,10 +6356,8 @@
           <t>4946215843</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:05:43</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44396.8789699074</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6571,10 +6421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:01:39</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44396.87614583333</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6642,10 +6490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:01:15</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44396.87586805555</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6721,10 +6567,8 @@
           <t>4946224684</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:00:00</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44396.875</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6801,10 +6645,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:59:49</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44396.87487268518</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6872,10 +6714,8 @@
           <t>4946214023</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:59:08</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44396.87439814815</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6943,10 +6783,8 @@
           <t>4946215843</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:57:51</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44396.87350694444</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7022,10 +6860,8 @@
           <t>4946210401</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:57:40</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44396.87337962963</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7085,10 +6921,8 @@
           <t>4946206462</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:56:58</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44396.87289351852</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7148,10 +6982,8 @@
           <t>4946206199</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:56:52</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44396.87282407407</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7223,10 +7055,8 @@
           <t>4946190046</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:54:36</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44396.87125</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7302,10 +7132,8 @@
           <t>4946153032</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:50:36</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44396.86847222222</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7381,10 +7209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:47:25</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44396.86626157408</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7452,10 +7278,8 @@
           <t>4946117144</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:46:02</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44396.86530092593</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7527,10 +7351,8 @@
           <t>4946107313</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:44:07</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44396.8639699074</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7594,10 +7416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:43:55</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44396.86383101852</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7673,10 +7493,8 @@
           <t>4945563961</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:38:48</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44396.86027777778</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7740,10 +7558,8 @@
           <t>4946060836</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:37:33</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44396.85940972222</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7819,10 +7635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:36:46</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44396.85886574074</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7886,10 +7700,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:36:42</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44396.85881944445</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7957,10 +7769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:35:32</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44396.85800925926</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8024,10 +7834,8 @@
           <t>4946033251</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:34:31</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44396.85730324074</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8103,10 +7911,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:33:28</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44396.85657407407</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8182,10 +7988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:30:58</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44396.85483796296</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8245,10 +8049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:29:47</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44396.8540162037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8320,10 +8122,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:28:38</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44396.85321759259</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8399,10 +8199,8 @@
           <t>4945974287</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:26:49</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44396.85195601852</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8470,10 +8268,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:26:40</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44396.85185185185</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8541,10 +8337,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:26:24</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44396.85166666667</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8612,10 +8406,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:25:14</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44396.85085648148</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8683,10 +8475,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:24:04</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44396.8500462963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8758,10 +8548,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:23:10</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44396.8494212963</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8838,10 +8626,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:22:40</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44396.84907407407</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8905,10 +8691,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:22:08</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44396.8487037037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8985,10 +8769,8 @@
           <t>4945485183</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:19:58</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44396.84719907407</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9048,10 +8830,8 @@
           <t>4945574235</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:17:54</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44396.84576388889</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9119,10 +8899,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:17:53</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44396.84575231482</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9186,10 +8964,8 @@
           <t>4945902858</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:17:10</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44396.84525462963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9257,10 +9033,8 @@
           <t>4945902037</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:16:49</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44396.84501157407</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9332,10 +9106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:16:11</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44396.84457175926</v>
       </c>
       <c r="I123" t="n">
         <v>6</v>
@@ -9403,10 +9175,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:15:45</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44396.84427083333</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9482,10 +9252,8 @@
           <t>4945896936</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:15:31</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44396.84410879629</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9561,10 +9329,8 @@
           <t>4945892724</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:15:29</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44396.84408564815</v>
       </c>
       <c r="I126" t="n">
         <v>7</v>
@@ -9636,10 +9402,8 @@
           <t>4945866951</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:11:20</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44396.84120370371</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9711,10 +9475,8 @@
           <t>4945859110</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:11:16</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44396.84115740741</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9786,10 +9548,8 @@
           <t>4945847121</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:09:13</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44396.8397337963</v>
       </c>
       <c r="I129" t="n">
         <v>5</v>
@@ -9865,10 +9625,8 @@
           <t>4945851443</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:09:03</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44396.83961805556</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9937,10 +9695,8 @@
           <t>4945829466</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:07:08</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44396.83828703704</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10016,10 +9772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:05:55</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44396.83744212963</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10079,10 +9833,8 @@
           <t>4945825999</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:05:37</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44396.83723379629</v>
       </c>
       <c r="I133" t="n">
         <v>7</v>
@@ -10150,10 +9902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:04:42</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44396.83659722222</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10229,10 +9979,8 @@
           <t>4945448778</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:04:16</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44396.83629629629</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10308,10 +10056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:04:06</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44396.83618055555</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10379,10 +10125,8 @@
           <t>4945810292</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:03:10</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44396.83553240741</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10454,10 +10198,8 @@
           <t>4945805680</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:02:37</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44396.83515046296</v>
       </c>
       <c r="I138" t="n">
         <v>8</v>
@@ -10533,10 +10275,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:01:52</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44396.83462962963</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10600,10 +10340,8 @@
           <t>4945786731</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:00:56</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44396.83398148148</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10671,10 +10409,8 @@
           <t>4945546348</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:59:41</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44396.83311342593</v>
       </c>
       <c r="I141" t="n">
         <v>12</v>
@@ -10746,10 +10482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:58:44</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44396.8324537037</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10817,10 +10551,8 @@
           <t>4945759688</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:58:06</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44396.83201388889</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10896,10 +10628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:57:52</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44396.83185185185</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10967,10 +10697,8 @@
           <t>4945762867</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:57:39</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44396.83170138889</v>
       </c>
       <c r="I145" t="n">
         <v>4</v>
@@ -11047,10 +10775,8 @@
           <t>4945757724</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:57:18</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44396.83145833333</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11114,10 +10840,8 @@
           <t>4945757600</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:57:15</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44396.83142361111</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11185,10 +10909,8 @@
           <t>4945761662</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:57:10</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44396.83136574074</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11264,10 +10986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:56:48</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44396.83111111111</v>
       </c>
       <c r="I149" t="n">
         <v>4</v>
@@ -11339,10 +11059,8 @@
           <t>4945747684</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:55:39</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44396.8303125</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11410,10 +11128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:54:27</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44396.82947916666</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11502,10 +11218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:54:14</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44396.8293287037</v>
       </c>
       <c r="I152" t="n">
         <v>34</v>
@@ -11581,10 +11295,8 @@
           <t>4945728980</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:53:51</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44396.8290625</v>
       </c>
       <c r="I153" t="n">
         <v>7</v>
@@ -11656,10 +11368,8 @@
           <t>4945737368</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:53:41</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44396.82894675926</v>
       </c>
       <c r="I154" t="n">
         <v>9</v>
@@ -11728,10 +11438,8 @@
           <t>4945736790</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:53:27</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44396.82878472222</v>
       </c>
       <c r="I155" t="n">
         <v>10</v>
@@ -11807,10 +11515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:53:13</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44396.82862268519</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11878,10 +11584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:52:05</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44396.82783564815</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11945,10 +11649,8 @@
           <t>4945713367</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:51:37</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44396.82751157408</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12024,10 +11726,8 @@
           <t>4945716891</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:51:25</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44396.82737268518</v>
       </c>
       <c r="I159" t="n">
         <v>12</v>
@@ -12095,10 +11795,8 @@
           <t>4945709857</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:50:40</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44396.82685185185</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12170,10 +11868,8 @@
           <t>4945704677</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:50:30</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44396.82673611111</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12241,10 +11937,8 @@
           <t>4945707958</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:49:56</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44396.82634259259</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12316,10 +12010,8 @@
           <t>4945695390</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:48:23</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44396.8252662037</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12387,10 +12079,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:48:14</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44396.82516203704</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12454,10 +12144,8 @@
           <t>4945693536</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:48:10</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44396.82511574074</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12529,10 +12217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:47:57</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44396.82496527778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12600,10 +12286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:47:54</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44396.82493055556</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12675,10 +12359,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:47:54</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44396.82493055556</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12754,10 +12436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:47:50</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44396.82488425926</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12825,10 +12505,8 @@
           <t>4945692339</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:47:42</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44396.82479166667</v>
       </c>
       <c r="I170" t="n">
         <v>10</v>
@@ -12892,10 +12570,8 @@
           <t>4945679723</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:46:39</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44396.8240625</v>
       </c>
       <c r="I171" t="n">
         <v>8</v>
@@ -12963,10 +12639,8 @@
           <t>4945680429</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:46:26</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44396.82391203703</v>
       </c>
       <c r="I172" t="n">
         <v>8</v>
@@ -13034,10 +12708,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:46:15</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44396.82378472222</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13105,10 +12777,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:45:51</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44396.82350694444</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13180,10 +12850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:45:42</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44396.82340277778</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13247,10 +12915,8 @@
           <t>4945677207</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:45:39</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44396.82336805556</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13326,10 +12992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:45:16</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44396.82310185185</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13393,10 +13057,8 @@
           <t>4945448778</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:45:06</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44396.82298611111</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13464,10 +13126,8 @@
           <t>4945670481</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:44:34</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44396.82261574074</v>
       </c>
       <c r="I179" t="n">
         <v>10</v>
@@ -13531,10 +13191,8 @@
           <t>4945665529</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:44:28</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44396.82254629629</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13611,10 +13269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:44:14</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44396.82238425926</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13682,10 +13338,8 @@
           <t>4945658967</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:43:55</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44396.82216435186</v>
       </c>
       <c r="I182" t="n">
         <v>9</v>
@@ -13749,10 +13403,8 @@
           <t>4945657222</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:43:09</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44396.82163194445</v>
       </c>
       <c r="I183" t="n">
         <v>9</v>
@@ -13820,10 +13472,8 @@
           <t>4945656335</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:42:47</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44396.82137731482</v>
       </c>
       <c r="I184" t="n">
         <v>24</v>
@@ -13888,10 +13538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:42:41</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44396.82130787037</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13955,10 +13603,8 @@
           <t>4945615089</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:42:38</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44396.82127314815</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14022,10 +13668,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:40:40</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44396.81990740741</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14101,10 +13745,8 @@
           <t>4945641214</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:40:36</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44396.81986111111</v>
       </c>
       <c r="I188" t="n">
         <v>26</v>
@@ -14169,10 +13811,8 @@
           <t>4945629810</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:40:00</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44396.81944444445</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14240,10 +13880,8 @@
           <t>4945620778</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:38:18</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44396.81826388889</v>
       </c>
       <c r="I190" t="n">
         <v>26</v>
@@ -14311,10 +13949,8 @@
           <t>4945625565</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:38:14</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44396.81821759259</v>
       </c>
       <c r="I191" t="n">
         <v>5</v>
@@ -14390,10 +14026,8 @@
           <t>4945607167</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:36:49</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44396.8172337963</v>
       </c>
       <c r="I192" t="n">
         <v>30</v>
@@ -14466,10 +14100,8 @@
           <t>4945615089</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:36:45</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44396.8171875</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14541,10 +14173,8 @@
           <t>4945603192</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:35:59</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44396.8166550926</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14616,10 +14246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:34:37</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44396.81570601852</v>
       </c>
       <c r="I195" t="n">
         <v>338</v>
@@ -14691,10 +14319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:34:16</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44396.81546296296</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14770,10 +14396,8 @@
           <t>4945584902</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:33:52</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44396.81518518519</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14849,10 +14473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:33:43</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44396.81508101852</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14916,10 +14538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:33:06</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44396.81465277778</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14991,10 +14611,8 @@
           <t>4945578517</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:33:04</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44396.81462962963</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15066,10 +14684,8 @@
           <t>4945578366</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:33:00</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44396.81458333333</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15145,10 +14761,8 @@
           <t>4945577692</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:32:43</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44396.81438657407</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15224,10 +14838,8 @@
           <t>4945574235</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:32:16</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44396.81407407407</v>
       </c>
       <c r="I203" t="n">
         <v>5</v>
@@ -15303,10 +14915,8 @@
           <t>4945563961</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:31:09</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44396.81329861111</v>
       </c>
       <c r="I204" t="n">
         <v>2</v>
@@ -15382,10 +14992,8 @@
           <t>4945571218</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:31:05</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44396.81325231482</v>
       </c>
       <c r="I205" t="n">
         <v>34</v>
@@ -15453,10 +15061,8 @@
           <t>4945561171</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:30:00</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44396.8125</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15533,10 +15139,8 @@
           <t>4945560013</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:29:31</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44396.81216435185</v>
       </c>
       <c r="I207" t="n">
         <v>5</v>
@@ -15608,10 +15212,8 @@
           <t>4945546348</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:29:10</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44396.8119212963</v>
       </c>
       <c r="I208" t="n">
         <v>13</v>
@@ -15683,10 +15285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:29:02</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44396.81182870371</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15762,10 +15362,8 @@
           <t>4945552424</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:28:46</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44396.81164351852</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15833,10 +15431,8 @@
           <t>4945551621</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:28:25</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44396.81140046296</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15896,10 +15492,8 @@
           <t>4945546348</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:27:59</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44396.81109953704</v>
       </c>
       <c r="I212" t="n">
         <v>43</v>
@@ -15975,10 +15569,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:27:19</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44396.81063657408</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16046,10 +15638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:27:13</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44396.81056712963</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16125,10 +15715,8 @@
           <t>4945538555</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:27:10</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44396.81053240741</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16192,10 +15780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:26:58</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44396.81039351852</v>
       </c>
       <c r="I216" t="n">
         <v>3</v>
@@ -16259,10 +15845,8 @@
           <t>4945538064</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:26:57</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44396.81038194444</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -16330,10 +15914,8 @@
           <t>4945448778</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:26:44</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44396.81023148148</v>
       </c>
       <c r="I218" t="n">
         <v>10</v>
@@ -16401,10 +15983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:26:31</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44396.81008101852</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16480,10 +16060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:26:07</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44396.80980324074</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16555,10 +16133,8 @@
           <t>4945531250</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:25:49</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44396.8095949074</v>
       </c>
       <c r="I221" t="n">
         <v>6</v>
@@ -16626,10 +16202,8 @@
           <t>4945527392</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:25:35</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44396.80943287037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16697,10 +16271,8 @@
           <t>4945518647</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:24:44</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44396.8088425926</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16772,10 +16344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:24:32</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44396.8087037037</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16847,10 +16417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:23:30</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44396.80798611111</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16926,10 +16494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:23:24</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44396.80791666666</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17005,10 +16571,8 @@
           <t>4945448778</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:22:39</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44396.80739583333</v>
       </c>
       <c r="I227" t="n">
         <v>11</v>
@@ -17084,10 +16648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:21:52</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44396.80685185185</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17147,10 +16709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:21:10</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44396.80636574074</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17218,10 +16778,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:20:09</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44396.80565972222</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17285,10 +16843,8 @@
           <t>4945487630</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:20:07</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44396.80563657408</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17360,10 +16916,8 @@
           <t>4945485183</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:20:05</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44396.80561342592</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17439,10 +16993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:19:58</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44396.80553240741</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17555,10 +17107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:19:54</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44396.80548611111</v>
       </c>
       <c r="I234" t="n">
         <v>7</v>
@@ -17632,10 +17182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:19:40</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44396.80532407408</v>
       </c>
       <c r="I235" t="n">
         <v>7</v>
@@ -17701,10 +17249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:19:39</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44396.8053125</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17784,10 +17330,8 @@
           <t>4945481033</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:19:10</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44396.80497685185</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17863,10 +17407,8 @@
           <t>4945485183</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:19:06</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44396.80493055555</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17942,10 +17484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:18:57</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44396.80482638889</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18017,10 +17557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:18:38</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44396.80460648148</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18084,10 +17622,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:18:38</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44396.80460648148</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18163,10 +17699,8 @@
           <t>4945469143</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:18:27</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44396.80447916667</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18237,10 +17771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:18:23</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44396.80443287037</v>
       </c>
       <c r="I243" t="n">
         <v>7</v>
@@ -18316,10 +17848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:18:06</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44396.80423611111</v>
       </c>
       <c r="I244" t="n">
         <v>8</v>
@@ -18387,10 +17917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:17:45</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44396.80399305555</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18458,10 +17986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:17:23</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44396.80373842592</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18537,10 +18063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:17:21</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44396.80371527778</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18616,10 +18140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:17:19</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44396.80369212963</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18695,10 +18217,8 @@
           <t>4945470953</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:17:18</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44396.80368055555</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18766,10 +18286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:17:16</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44396.80365740741</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18845,10 +18363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:16:54</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44396.80340277778</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18912,10 +18428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:16:52</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44396.80337962963</v>
       </c>
       <c r="I252" t="n">
         <v>99</v>
@@ -18987,10 +18501,8 @@
           <t>4945454675</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:16:39</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44396.80322916667</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19058,10 +18570,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:16:31</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44396.80313657408</v>
       </c>
       <c r="I254" t="n">
         <v>2</v>
@@ -19125,10 +18635,8 @@
           <t>4945461269</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:16:14</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44396.80293981481</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19200,10 +18708,8 @@
           <t>4945461006</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:16:07</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44396.8028587963</v>
       </c>
       <c r="I256" t="n">
         <v>6</v>
@@ -19279,10 +18785,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:54</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44396.80270833334</v>
       </c>
       <c r="I257" t="n">
         <v>16</v>
@@ -19346,10 +18850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:47</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44396.80262731481</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19417,10 +18919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:46</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44396.80261574074</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19488,10 +18988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:40</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44396.8025462963</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19563,10 +19061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:31</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44396.80244212963</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19634,10 +19130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:28</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44396.80240740741</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19701,10 +19195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:26</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44396.80238425926</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19776,10 +19268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:23</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44396.80234953704</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19851,10 +19341,8 @@
           <t>4945448778</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:14</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44396.80224537037</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19922,10 +19410,8 @@
           <t>4945455749</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:15:10</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44396.80219907407</v>
       </c>
       <c r="I266" t="n">
         <v>2</v>
@@ -20010,10 +19496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:14:50</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44396.80196759259</v>
       </c>
       <c r="I267" t="n">
         <v>407</v>
@@ -20085,10 +19569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:14:34</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44396.8017824074</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20164,10 +19646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:14:31</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44396.80174768518</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20231,10 +19711,8 @@
           <t>4945438777</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:14:21</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44396.80163194444</v>
       </c>
       <c r="I270" t="n">
         <v>28</v>
@@ -20306,10 +19784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:14:14</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44396.80155092593</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20373,10 +19849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:14:05</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44396.80144675926</v>
       </c>
       <c r="I272" t="n">
         <v>110</v>
@@ -20452,10 +19926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:14:02</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44396.80141203704</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20523,10 +19995,8 @@
           <t>4945442727</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:13:53</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44396.80130787037</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20594,10 +20064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:13:40</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44396.8011574074</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20673,10 +20141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:13:37</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44396.80112268519</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20752,10 +20218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:13:23</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44396.80096064815</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20823,10 +20287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:13:15</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44396.80086805556</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20902,10 +20364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:13:10</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44396.80081018519</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20973,10 +20433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:13:07</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44396.80077546297</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21052,10 +20510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:13:07</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44396.80077546297</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21131,10 +20587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:13:05</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44396.80075231481</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21208,10 +20662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:54</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44396.800625</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21287,10 +20739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:47</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44396.80054398148</v>
       </c>
       <c r="I284" t="n">
         <v>34</v>
@@ -21362,10 +20812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:33</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44396.80038194444</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21444,10 +20892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:23</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44396.8002662037</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21523,10 +20969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:16</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44396.80018518519</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21602,10 +21046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:15</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44396.80017361111</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21669,10 +21111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:11</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44396.80012731482</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21744,10 +21184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:09</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44396.80010416666</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21811,10 +21249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:05</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44396.80005787037</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21878,10 +21314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:12:02</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44396.80002314815</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21945,10 +21379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:58</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44396.79997685185</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22016,10 +21448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:57</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44396.79996527778</v>
       </c>
       <c r="I294" t="n">
         <v>25</v>
@@ -22095,10 +21525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:51</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44396.79989583333</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22170,10 +21598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:45</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44396.79982638889</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22252,10 +21678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:40</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44396.79976851852</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22327,10 +21751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:38</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44396.79974537037</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22402,10 +21824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:28</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44396.79962962963</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22481,10 +21901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:19</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44396.79952546296</v>
       </c>
       <c r="I300" t="n">
         <v>256</v>
@@ -22548,10 +21966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:16</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44396.79949074074</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22627,10 +22043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:15</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44396.79947916666</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22695,10 +22109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:14</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44396.79946759259</v>
       </c>
       <c r="I303" t="n">
         <v>53</v>
@@ -22774,10 +22186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:11:01</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44396.79931712963</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22845,10 +22255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:59</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44396.79929398148</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22924,10 +22332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:58</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44396.79928240741</v>
       </c>
       <c r="I306" t="n">
         <v>3</v>
@@ -22991,10 +22397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:55</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44396.79924768519</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23070,10 +22474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:52</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44396.79921296296</v>
       </c>
       <c r="I308" t="n">
         <v>3</v>
@@ -23149,10 +22551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:45</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44396.79913194444</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23224,10 +22624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:45</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44396.79913194444</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23303,10 +22701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:44</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44396.79912037037</v>
       </c>
       <c r="I311" t="n">
         <v>3</v>
@@ -23374,10 +22770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:41</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44396.79908564815</v>
       </c>
       <c r="I312" t="n">
         <v>7</v>
@@ -23454,10 +22848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:37</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44396.79903935185</v>
       </c>
       <c r="I313" t="n">
         <v>1354</v>
@@ -23526,10 +22918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:31</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44396.79896990741</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23605,10 +22995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:30</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44396.79895833333</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23676,10 +23064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:29</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44396.79894675926</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23747,10 +23133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:29</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44396.79894675926</v>
       </c>
       <c r="I317" t="n">
         <v>9</v>
@@ -23826,10 +23210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:28</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44396.79893518519</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23897,10 +23279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:27</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44396.79892361111</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23968,10 +23348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:24</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44396.79888888889</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -24039,10 +23417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:24</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44396.79888888889</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24118,10 +23494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:24</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44396.79888888889</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24193,10 +23567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:21</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44396.79885416666</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24268,10 +23640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:21</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44396.79885416666</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24347,10 +23717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:20</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44396.79884259259</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24418,10 +23786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:18</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44396.79881944445</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24493,10 +23859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:16</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44396.79879629629</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24568,10 +23932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:15</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44396.79878472222</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24647,10 +24009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:12</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44396.79875</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24726,10 +24086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:12</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44396.79875</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24804,10 +24162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:10</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44396.79872685186</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24879,10 +24235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:07</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44396.79869212963</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24954,10 +24308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:02</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44396.79863425926</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -25033,10 +24385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:01</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44396.79862268519</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -25104,10 +24454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:10:00</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44396.79861111111</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25171,10 +24519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:09:59</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44396.79859953704</v>
       </c>
       <c r="I336" t="n">
         <v>18</v>
@@ -25250,10 +24596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:09:58</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44396.79858796296</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25325,10 +24669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:09:48</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44396.79847222222</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
